--- a/biology/Histoire de la zoologie et de la botanique/Charles_Wardell_Stiles/Charles_Wardell_Stiles.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_Wardell_Stiles/Charles_Wardell_Stiles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Wardell Stiles est un zoologiste américain, né le 15 mai 1867 à Spring Valley (État de New York) et mort le 24 janvier 1941.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Samuel Martin et d’Elizabeth (née White) Stiles. Il étudie à l’Université wesleyenne dans le Connecticut de 1885 à 1886, au Collège de France de 1886 à 1887, à l’université de Berlin de 1887 à 1889, à l’université de Leipzig de 1889 à 1890 et séjourne à la Station de zoologie de Trieste en 1891 ainsi qu’à l’Institut Pasteur de Paris la même année. Il obtient son titre de docteur à Leipzig sous la direction de Rudolf Leuckart (1822-1898).
 Il travaille pour le bureau de zoologie industrielle au ministère américain de l’Agriculture de 1891 à 1902. Stiles enseigne la zoologie au sein du United States Public Health Service de 1902 à 1930. Parallèlement, il enseigne la zoologie médicale à l’université de Georgetown de 1892 à 1906 et dans diverses écoles de médecine.
@@ -544,7 +558,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">James H. Cassedy (1971). Applied Microscopy and American Pork Diplomacy: Charles Wardell Stiles in Germany 1898-1899, Isis: International Review devoted to the History of Science and its Cultural Influences, 62, 1 : 4-20.  (ISSN 0021-1753)
 Allen G. Debus (dir.) (1968). World Who’s Who in Science. A Biographical Dictionary of Notable Scientists from Antiquity to the Present. Marquis-Who’s Who (Chicago) : xvi + 1855 p.
